--- a/data/LCI_temp.xlsx
+++ b/data/LCI_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="297">
   <si>
     <t>Database</t>
   </si>
@@ -424,42 +424,42 @@
     <t>market for extrusion of plastic sheets and thermoforming, inline</t>
   </si>
   <si>
+    <t>treatment of hazardous waste, hazardous waste incineration</t>
+  </si>
+  <si>
+    <t>lidding foil production</t>
+  </si>
+  <si>
+    <t>market for vinyl chloride</t>
+  </si>
+  <si>
+    <t>market for maleic anhydride</t>
+  </si>
+  <si>
+    <t>market for laminating service, foil, with acrylic binder</t>
+  </si>
+  <si>
+    <t>market for sheet rolling, aluminium</t>
+  </si>
+  <si>
+    <t>secondary packaging production</t>
+  </si>
+  <si>
+    <t>paper production, newsprint, virgin</t>
+  </si>
+  <si>
+    <t>offset printing, per kg printed paper</t>
+  </si>
+  <si>
+    <t>production of a medicine strip</t>
+  </si>
+  <si>
     <t>transport, freight, lorry, all sizes, EURO5 to generic market for transport, freight, lorry, unspecified</t>
   </si>
   <si>
     <t>market for transport, freight, sea, ferry</t>
   </si>
   <si>
-    <t>treatment of hazardous waste, hazardous waste incineration</t>
-  </si>
-  <si>
-    <t>lidding foil production</t>
-  </si>
-  <si>
-    <t>market for vinyl chloride</t>
-  </si>
-  <si>
-    <t>market for maleic anhydride</t>
-  </si>
-  <si>
-    <t>market for laminating service, foil, with acrylic binder</t>
-  </si>
-  <si>
-    <t>market for sheet rolling, aluminium</t>
-  </si>
-  <si>
-    <t>secondary packaging production</t>
-  </si>
-  <si>
-    <t>paper production, newsprint, virgin</t>
-  </si>
-  <si>
-    <t>offset printing, per kg printed paper</t>
-  </si>
-  <si>
-    <t>production of a medicine strip</t>
-  </si>
-  <si>
     <t>production of a medicin cup</t>
   </si>
   <si>
@@ -751,22 +751,22 @@
     <t>extrusion of plastic sheets and thermoforming, inline</t>
   </si>
   <si>
+    <t>vinyl chloride</t>
+  </si>
+  <si>
+    <t>maleic anhydride</t>
+  </si>
+  <si>
+    <t>laminating service, foil, with acrylic binder</t>
+  </si>
+  <si>
+    <t>paper, newsprint</t>
+  </si>
+  <si>
+    <t>printed paper, offset</t>
+  </si>
+  <si>
     <t>transport, freight, sea, ferry</t>
-  </si>
-  <si>
-    <t>vinyl chloride</t>
-  </si>
-  <si>
-    <t>maleic anhydride</t>
-  </si>
-  <si>
-    <t>laminating service, foil, with acrylic binder</t>
-  </si>
-  <si>
-    <t>paper, newsprint</t>
-  </si>
-  <si>
-    <t>printed paper, offset</t>
   </si>
   <si>
     <t>CH</t>
@@ -1262,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9065,16 +9065,16 @@
         <v>136</v>
       </c>
       <c r="B469">
-        <v>5.61E-05</v>
+        <v>-6.233333333333332E-05</v>
       </c>
       <c r="C469" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D469" t="s">
         <v>150</v>
       </c>
       <c r="E469" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="G469" t="s">
         <v>263</v>
@@ -9082,185 +9082,185 @@
       <c r="H469" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="470" spans="1:9">
-      <c r="A470" t="s">
-        <v>137</v>
-      </c>
-      <c r="B470">
-        <v>0.001496</v>
-      </c>
-      <c r="C470" t="s">
-        <v>245</v>
-      </c>
-      <c r="D470" t="s">
-        <v>159</v>
-      </c>
-      <c r="E470" t="s">
-        <v>256</v>
-      </c>
-      <c r="G470" t="s">
-        <v>263</v>
-      </c>
-      <c r="H470" t="s">
-        <v>266</v>
+      <c r="I469" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="471" spans="1:9">
       <c r="A471" t="s">
-        <v>138</v>
-      </c>
-      <c r="B471">
-        <v>-6.233333333333332E-05</v>
-      </c>
-      <c r="C471" t="s">
-        <v>225</v>
-      </c>
-      <c r="D471" t="s">
-        <v>150</v>
-      </c>
-      <c r="E471" t="s">
-        <v>151</v>
-      </c>
-      <c r="G471" t="s">
-        <v>263</v>
-      </c>
-      <c r="H471" t="s">
-        <v>266</v>
-      </c>
-      <c r="I471" t="s">
-        <v>296</v>
+        <v>9</v>
+      </c>
+      <c r="B471" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>10</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:9">
       <c r="A473" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B473" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="474" spans="1:9">
       <c r="A474" t="s">
-        <v>10</v>
-      </c>
-      <c r="B474">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B474" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="475" spans="1:9">
       <c r="A475" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B475" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
     </row>
     <row r="476" spans="1:9">
       <c r="A476" t="s">
-        <v>12</v>
-      </c>
-      <c r="B476" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="477" spans="1:9">
       <c r="A477" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B477" t="s">
-        <v>13</v>
+        <v>152</v>
+      </c>
+      <c r="C477" t="s">
+        <v>11</v>
+      </c>
+      <c r="D477" t="s">
+        <v>12</v>
+      </c>
+      <c r="E477" t="s">
+        <v>13</v>
+      </c>
+      <c r="F477" t="s">
+        <v>258</v>
+      </c>
+      <c r="G477" t="s">
+        <v>261</v>
+      </c>
+      <c r="H477" t="s">
+        <v>265</v>
+      </c>
+      <c r="I477" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="478" spans="1:9">
       <c r="A478" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478" t="s">
+        <v>171</v>
+      </c>
+      <c r="D478" t="s">
+        <v>150</v>
+      </c>
+      <c r="E478" t="s">
+        <v>13</v>
+      </c>
+      <c r="G478" t="s">
+        <v>262</v>
+      </c>
+      <c r="H478" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:9">
       <c r="A479" t="s">
-        <v>15</v>
-      </c>
-      <c r="B479" t="s">
-        <v>152</v>
+        <v>130</v>
+      </c>
+      <c r="B479">
+        <v>4.399999999999999E-05</v>
       </c>
       <c r="C479" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="D479" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="E479" t="s">
-        <v>13</v>
-      </c>
-      <c r="F479" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="G479" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H479" t="s">
-        <v>265</v>
-      </c>
-      <c r="I479" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="480" spans="1:9">
       <c r="A480" t="s">
+        <v>128</v>
+      </c>
+      <c r="B480">
+        <v>8.231999999999998E-05</v>
+      </c>
+      <c r="C480" t="s">
+        <v>238</v>
+      </c>
+      <c r="D480" t="s">
+        <v>159</v>
+      </c>
+      <c r="E480" t="s">
+        <v>151</v>
+      </c>
+      <c r="G480" t="s">
+        <v>263</v>
+      </c>
+      <c r="H480" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>138</v>
+      </c>
+      <c r="B481">
+        <v>0.00015768</v>
+      </c>
+      <c r="C481" t="s">
+        <v>245</v>
+      </c>
+      <c r="D481" t="s">
+        <v>150</v>
+      </c>
+      <c r="E481" t="s">
+        <v>151</v>
+      </c>
+      <c r="G481" t="s">
+        <v>263</v>
+      </c>
+      <c r="H481" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
         <v>139</v>
       </c>
-      <c r="B480">
-        <v>1</v>
-      </c>
-      <c r="C480" t="s">
-        <v>171</v>
-      </c>
-      <c r="D480" t="s">
-        <v>150</v>
-      </c>
-      <c r="E480" t="s">
-        <v>13</v>
-      </c>
-      <c r="G480" t="s">
-        <v>262</v>
-      </c>
-      <c r="H480" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8">
-      <c r="A481" t="s">
-        <v>130</v>
-      </c>
-      <c r="B481">
-        <v>4.399999999999999E-05</v>
-      </c>
-      <c r="C481" t="s">
-        <v>239</v>
-      </c>
-      <c r="D481" t="s">
-        <v>159</v>
-      </c>
-      <c r="E481" t="s">
-        <v>151</v>
-      </c>
-      <c r="G481" t="s">
-        <v>263</v>
-      </c>
-      <c r="H481" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="A482" t="s">
-        <v>128</v>
-      </c>
       <c r="B482">
-        <v>8.231999999999998E-05</v>
+        <v>3.733333333333333E-06</v>
       </c>
       <c r="C482" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D482" t="s">
         <v>159</v>
@@ -9275,67 +9275,67 @@
         <v>266</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:9">
       <c r="A483" t="s">
+        <v>128</v>
+      </c>
+      <c r="B483">
+        <v>2.266666666666666E-05</v>
+      </c>
+      <c r="C483" t="s">
+        <v>238</v>
+      </c>
+      <c r="D483" t="s">
+        <v>159</v>
+      </c>
+      <c r="E483" t="s">
+        <v>151</v>
+      </c>
+      <c r="G483" t="s">
+        <v>263</v>
+      </c>
+      <c r="H483" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>138</v>
+      </c>
+      <c r="B484">
+        <v>2.666666666666667E-07</v>
+      </c>
+      <c r="C484" t="s">
+        <v>245</v>
+      </c>
+      <c r="D484" t="s">
+        <v>150</v>
+      </c>
+      <c r="E484" t="s">
+        <v>151</v>
+      </c>
+      <c r="G484" t="s">
+        <v>263</v>
+      </c>
+      <c r="H484" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
         <v>140</v>
       </c>
-      <c r="B483">
-        <v>0.00015768</v>
-      </c>
-      <c r="C483" t="s">
-        <v>246</v>
-      </c>
-      <c r="D483" t="s">
-        <v>150</v>
-      </c>
-      <c r="E483" t="s">
-        <v>151</v>
-      </c>
-      <c r="G483" t="s">
-        <v>263</v>
-      </c>
-      <c r="H483" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="A484" t="s">
-        <v>141</v>
-      </c>
-      <c r="B484">
-        <v>3.733333333333333E-06</v>
-      </c>
-      <c r="C484" t="s">
+      <c r="B485">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="C485" t="s">
         <v>247</v>
-      </c>
-      <c r="D484" t="s">
-        <v>159</v>
-      </c>
-      <c r="E484" t="s">
-        <v>151</v>
-      </c>
-      <c r="G484" t="s">
-        <v>263</v>
-      </c>
-      <c r="H484" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
-      <c r="A485" t="s">
-        <v>128</v>
-      </c>
-      <c r="B485">
-        <v>2.266666666666666E-05</v>
-      </c>
-      <c r="C485" t="s">
-        <v>238</v>
       </c>
       <c r="D485" t="s">
         <v>159</v>
       </c>
       <c r="E485" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="G485" t="s">
         <v>263</v>
@@ -9344,920 +9344,828 @@
         <v>266</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:9">
       <c r="A486" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B486">
-        <v>2.666666666666667E-07</v>
+        <v>3.3E-05</v>
       </c>
       <c r="C486" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="D486" t="s">
+        <v>159</v>
+      </c>
+      <c r="E486" t="s">
+        <v>151</v>
+      </c>
+      <c r="G486" t="s">
+        <v>263</v>
+      </c>
+      <c r="H486" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>136</v>
+      </c>
+      <c r="B487">
+        <v>-5.824999999999999E-05</v>
+      </c>
+      <c r="C487" t="s">
+        <v>225</v>
+      </c>
+      <c r="D487" t="s">
         <v>150</v>
       </c>
-      <c r="E486" t="s">
-        <v>151</v>
-      </c>
-      <c r="G486" t="s">
-        <v>263</v>
-      </c>
-      <c r="H486" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="A487" t="s">
+      <c r="E487" t="s">
+        <v>151</v>
+      </c>
+      <c r="G487" t="s">
+        <v>263</v>
+      </c>
+      <c r="H487" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" t="s">
         <v>142</v>
       </c>
-      <c r="B487">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="C487" t="s">
-        <v>248</v>
-      </c>
-      <c r="D487" t="s">
-        <v>159</v>
-      </c>
-      <c r="E487" t="s">
-        <v>257</v>
-      </c>
-      <c r="G487" t="s">
-        <v>263</v>
-      </c>
-      <c r="H487" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8">
-      <c r="A488" t="s">
-        <v>143</v>
-      </c>
-      <c r="B488">
-        <v>3.3E-05</v>
-      </c>
-      <c r="C488" t="s">
-        <v>57</v>
-      </c>
-      <c r="D488" t="s">
-        <v>159</v>
-      </c>
-      <c r="E488" t="s">
-        <v>151</v>
-      </c>
-      <c r="G488" t="s">
-        <v>263</v>
-      </c>
-      <c r="H488" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="A489" t="s">
-        <v>136</v>
-      </c>
-      <c r="B489">
-        <v>6.989999999999999E-05</v>
-      </c>
-      <c r="C489" t="s">
-        <v>217</v>
-      </c>
-      <c r="D489" t="s">
-        <v>150</v>
-      </c>
-      <c r="E489" t="s">
-        <v>256</v>
-      </c>
-      <c r="G489" t="s">
-        <v>263</v>
-      </c>
-      <c r="H489" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8">
+    </row>
+    <row r="490" spans="1:9">
       <c r="A490" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B490">
-        <v>0.001864</v>
-      </c>
-      <c r="C490" t="s">
-        <v>245</v>
-      </c>
-      <c r="D490" t="s">
-        <v>159</v>
-      </c>
-      <c r="E490" t="s">
-        <v>256</v>
-      </c>
-      <c r="G490" t="s">
-        <v>263</v>
-      </c>
-      <c r="H490" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
       <c r="A491" t="s">
-        <v>138</v>
-      </c>
-      <c r="B491">
-        <v>-0.005424617857142856</v>
-      </c>
-      <c r="C491" t="s">
-        <v>225</v>
-      </c>
-      <c r="D491" t="s">
-        <v>150</v>
-      </c>
-      <c r="E491" t="s">
-        <v>151</v>
-      </c>
-      <c r="G491" t="s">
-        <v>263</v>
-      </c>
-      <c r="H491" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="B491" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>12</v>
+      </c>
+      <c r="B492" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
       <c r="A493" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B493" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
       <c r="A494" t="s">
-        <v>10</v>
-      </c>
-      <c r="B494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
       <c r="A495" t="s">
+        <v>15</v>
+      </c>
+      <c r="B495" t="s">
+        <v>152</v>
+      </c>
+      <c r="C495" t="s">
         <v>11</v>
       </c>
-      <c r="B495" t="s">
+      <c r="D495" t="s">
+        <v>12</v>
+      </c>
+      <c r="E495" t="s">
+        <v>13</v>
+      </c>
+      <c r="F495" t="s">
+        <v>258</v>
+      </c>
+      <c r="G495" t="s">
+        <v>261</v>
+      </c>
+      <c r="H495" t="s">
+        <v>265</v>
+      </c>
+      <c r="I495" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>142</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="496" spans="1:8">
-      <c r="A496" t="s">
-        <v>12</v>
-      </c>
-      <c r="B496" t="s">
+      <c r="D496" t="s">
         <v>155</v>
+      </c>
+      <c r="E496" t="s">
+        <v>13</v>
+      </c>
+      <c r="G496" t="s">
+        <v>262</v>
+      </c>
+      <c r="H496" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:9">
       <c r="A497" t="s">
-        <v>13</v>
-      </c>
-      <c r="B497" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="B497">
+        <v>0.000275</v>
+      </c>
+      <c r="C497" t="s">
+        <v>203</v>
+      </c>
+      <c r="D497" t="s">
+        <v>150</v>
+      </c>
+      <c r="E497" t="s">
+        <v>151</v>
+      </c>
+      <c r="G497" t="s">
+        <v>263</v>
+      </c>
+      <c r="H497" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="498" spans="1:9">
       <c r="A498" t="s">
-        <v>14</v>
+        <v>143</v>
+      </c>
+      <c r="B498">
+        <v>0.0002694444444444444</v>
+      </c>
+      <c r="C498" t="s">
+        <v>248</v>
+      </c>
+      <c r="D498" t="s">
+        <v>150</v>
+      </c>
+      <c r="E498" t="s">
+        <v>151</v>
+      </c>
+      <c r="G498" t="s">
+        <v>263</v>
+      </c>
+      <c r="H498" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="499" spans="1:9">
       <c r="A499" t="s">
-        <v>15</v>
-      </c>
-      <c r="B499" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="B499">
+        <v>0.0002694444444444444</v>
       </c>
       <c r="C499" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="D499" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E499" t="s">
-        <v>13</v>
-      </c>
-      <c r="F499" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="G499" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H499" t="s">
-        <v>265</v>
-      </c>
-      <c r="I499" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="500" spans="1:9">
       <c r="A500" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>5.432E-05</v>
       </c>
       <c r="C500" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="D500" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E500" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="G500" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H500" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:9">
-      <c r="A501" t="s">
-        <v>61</v>
-      </c>
-      <c r="B501">
-        <v>0.000275</v>
-      </c>
-      <c r="C501" t="s">
-        <v>203</v>
-      </c>
-      <c r="D501" t="s">
-        <v>150</v>
-      </c>
-      <c r="E501" t="s">
-        <v>151</v>
-      </c>
-      <c r="G501" t="s">
-        <v>263</v>
-      </c>
-      <c r="H501" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="502" spans="1:9">
       <c r="A502" t="s">
+        <v>9</v>
+      </c>
+      <c r="B502" t="s">
         <v>145</v>
-      </c>
-      <c r="B502">
-        <v>0.0002694444444444444</v>
-      </c>
-      <c r="C502" t="s">
-        <v>249</v>
-      </c>
-      <c r="D502" t="s">
-        <v>150</v>
-      </c>
-      <c r="E502" t="s">
-        <v>151</v>
-      </c>
-      <c r="G502" t="s">
-        <v>263</v>
-      </c>
-      <c r="H502" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="503" spans="1:9">
       <c r="A503" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="B503">
-        <v>0.0002694444444444444</v>
-      </c>
-      <c r="C503" t="s">
-        <v>250</v>
-      </c>
-      <c r="D503" t="s">
-        <v>150</v>
-      </c>
-      <c r="E503" t="s">
-        <v>151</v>
-      </c>
-      <c r="G503" t="s">
-        <v>263</v>
-      </c>
-      <c r="H503" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:9">
       <c r="A504" t="s">
-        <v>136</v>
-      </c>
-      <c r="B504">
-        <v>0.0159468</v>
-      </c>
-      <c r="C504" t="s">
-        <v>217</v>
-      </c>
-      <c r="D504" t="s">
-        <v>150</v>
-      </c>
-      <c r="E504" t="s">
-        <v>256</v>
-      </c>
-      <c r="G504" t="s">
-        <v>263</v>
-      </c>
-      <c r="H504" t="s">
-        <v>266</v>
+        <v>11</v>
+      </c>
+      <c r="B504" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="505" spans="1:9">
       <c r="A505" t="s">
-        <v>137</v>
-      </c>
-      <c r="B505">
-        <v>0.425248</v>
-      </c>
-      <c r="C505" t="s">
-        <v>245</v>
-      </c>
-      <c r="D505" t="s">
-        <v>159</v>
-      </c>
-      <c r="E505" t="s">
-        <v>256</v>
-      </c>
-      <c r="G505" t="s">
-        <v>263</v>
-      </c>
-      <c r="H505" t="s">
-        <v>266</v>
+        <v>12</v>
+      </c>
+      <c r="B505" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="506" spans="1:9">
       <c r="A506" t="s">
-        <v>93</v>
-      </c>
-      <c r="B506">
-        <v>5.432E-05</v>
-      </c>
-      <c r="C506" t="s">
-        <v>228</v>
-      </c>
-      <c r="D506" t="s">
-        <v>150</v>
-      </c>
-      <c r="E506" t="s">
-        <v>151</v>
-      </c>
-      <c r="G506" t="s">
-        <v>263</v>
-      </c>
-      <c r="H506" t="s">
-        <v>266</v>
+        <v>13</v>
+      </c>
+      <c r="B506" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="508" spans="1:9">
       <c r="A508" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B508" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="C508" t="s">
+        <v>11</v>
+      </c>
+      <c r="D508" t="s">
+        <v>12</v>
+      </c>
+      <c r="E508" t="s">
+        <v>13</v>
+      </c>
+      <c r="F508" t="s">
+        <v>258</v>
+      </c>
+      <c r="G508" t="s">
+        <v>261</v>
+      </c>
+      <c r="H508" t="s">
+        <v>265</v>
+      </c>
+      <c r="I508" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="509" spans="1:9">
       <c r="A509" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509" t="s">
+        <v>173</v>
+      </c>
+      <c r="D509" t="s">
+        <v>155</v>
+      </c>
+      <c r="E509" t="s">
+        <v>13</v>
+      </c>
+      <c r="G509" t="s">
+        <v>262</v>
+      </c>
+      <c r="H509" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:9">
       <c r="A510" t="s">
-        <v>11</v>
-      </c>
-      <c r="B510" t="s">
-        <v>173</v>
+        <v>33</v>
+      </c>
+      <c r="B510">
+        <v>0.016</v>
+      </c>
+      <c r="C510" t="s">
+        <v>188</v>
+      </c>
+      <c r="D510" t="s">
+        <v>155</v>
+      </c>
+      <c r="E510" t="s">
+        <v>254</v>
+      </c>
+      <c r="G510" t="s">
+        <v>263</v>
+      </c>
+      <c r="H510" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="511" spans="1:9">
       <c r="A511" t="s">
-        <v>12</v>
-      </c>
-      <c r="B511" t="s">
-        <v>155</v>
+        <v>129</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511" t="s">
+        <v>170</v>
+      </c>
+      <c r="D511" t="s">
+        <v>150</v>
+      </c>
+      <c r="E511" t="s">
+        <v>13</v>
+      </c>
+      <c r="G511" t="s">
+        <v>263</v>
+      </c>
+      <c r="H511" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:9">
       <c r="A512" t="s">
-        <v>13</v>
-      </c>
-      <c r="B512" t="s">
-        <v>13</v>
+        <v>137</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512" t="s">
+        <v>171</v>
+      </c>
+      <c r="D512" t="s">
+        <v>150</v>
+      </c>
+      <c r="E512" t="s">
+        <v>13</v>
+      </c>
+      <c r="G512" t="s">
+        <v>263</v>
+      </c>
+      <c r="H512" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:9">
       <c r="A513" t="s">
-        <v>14</v>
+        <v>142</v>
+      </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
+      <c r="C513" t="s">
+        <v>172</v>
+      </c>
+      <c r="D513" t="s">
+        <v>155</v>
+      </c>
+      <c r="E513" t="s">
+        <v>13</v>
+      </c>
+      <c r="G513" t="s">
+        <v>263</v>
+      </c>
+      <c r="H513" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:9">
       <c r="A514" t="s">
-        <v>15</v>
-      </c>
-      <c r="B514" t="s">
-        <v>152</v>
+        <v>125</v>
+      </c>
+      <c r="B514">
+        <v>20</v>
       </c>
       <c r="C514" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D514" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E514" t="s">
         <v>13</v>
       </c>
-      <c r="F514" t="s">
-        <v>258</v>
-      </c>
       <c r="G514" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H514" t="s">
-        <v>265</v>
-      </c>
-      <c r="I514" t="s">
-        <v>268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:9">
       <c r="A515" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>0.0160728</v>
       </c>
       <c r="C515" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="D515" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E515" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="G515" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H515" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
     </row>
     <row r="516" spans="1:9">
       <c r="A516" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B516">
-        <v>0.016</v>
+        <v>0.428608</v>
       </c>
       <c r="C516" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D516" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E516" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G516" t="s">
         <v>263</v>
       </c>
       <c r="H516" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9">
-      <c r="A517" t="s">
-        <v>129</v>
-      </c>
-      <c r="B517">
-        <v>1</v>
-      </c>
-      <c r="C517" t="s">
-        <v>170</v>
-      </c>
-      <c r="D517" t="s">
-        <v>150</v>
-      </c>
-      <c r="E517" t="s">
-        <v>13</v>
-      </c>
-      <c r="G517" t="s">
-        <v>263</v>
-      </c>
-      <c r="H517" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:9">
       <c r="A518" t="s">
-        <v>139</v>
-      </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-      <c r="C518" t="s">
-        <v>171</v>
-      </c>
-      <c r="D518" t="s">
-        <v>150</v>
-      </c>
-      <c r="E518" t="s">
-        <v>13</v>
-      </c>
-      <c r="G518" t="s">
-        <v>263</v>
-      </c>
-      <c r="H518" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B518" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="519" spans="1:9">
       <c r="A519" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="B519">
-        <v>1</v>
-      </c>
-      <c r="C519" t="s">
-        <v>172</v>
-      </c>
-      <c r="D519" t="s">
-        <v>155</v>
-      </c>
-      <c r="E519" t="s">
-        <v>13</v>
-      </c>
-      <c r="G519" t="s">
-        <v>263</v>
-      </c>
-      <c r="H519" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:9">
       <c r="A520" t="s">
-        <v>125</v>
-      </c>
-      <c r="B520">
-        <v>20</v>
-      </c>
-      <c r="C520" t="s">
-        <v>125</v>
-      </c>
-      <c r="D520" t="s">
-        <v>155</v>
-      </c>
-      <c r="E520" t="s">
-        <v>13</v>
-      </c>
-      <c r="G520" t="s">
-        <v>263</v>
-      </c>
-      <c r="H520" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B520" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>12</v>
+      </c>
+      <c r="B521" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="522" spans="1:9">
       <c r="A522" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B522" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="523" spans="1:9">
       <c r="A523" t="s">
-        <v>10</v>
-      </c>
-      <c r="B523">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:9">
       <c r="A524" t="s">
+        <v>15</v>
+      </c>
+      <c r="B524" t="s">
+        <v>152</v>
+      </c>
+      <c r="C524" t="s">
         <v>11</v>
       </c>
-      <c r="B524" t="s">
-        <v>174</v>
+      <c r="D524" t="s">
+        <v>12</v>
+      </c>
+      <c r="E524" t="s">
+        <v>13</v>
+      </c>
+      <c r="F524" t="s">
+        <v>258</v>
+      </c>
+      <c r="G524" t="s">
+        <v>261</v>
+      </c>
+      <c r="H524" t="s">
+        <v>265</v>
+      </c>
+      <c r="I524" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="525" spans="1:9">
       <c r="A525" t="s">
-        <v>12</v>
-      </c>
-      <c r="B525" t="s">
+        <v>148</v>
+      </c>
+      <c r="B525">
+        <v>1</v>
+      </c>
+      <c r="C525" t="s">
+        <v>174</v>
+      </c>
+      <c r="D525" t="s">
         <v>161</v>
+      </c>
+      <c r="E525" t="s">
+        <v>13</v>
+      </c>
+      <c r="G525" t="s">
+        <v>262</v>
+      </c>
+      <c r="H525" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:9">
       <c r="A526" t="s">
-        <v>13</v>
-      </c>
-      <c r="B526" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="B526">
+        <v>0.002213279678068411</v>
+      </c>
+      <c r="C526" t="s">
+        <v>220</v>
+      </c>
+      <c r="D526" t="s">
+        <v>159</v>
+      </c>
+      <c r="E526" t="s">
+        <v>151</v>
+      </c>
+      <c r="G526" t="s">
+        <v>263</v>
+      </c>
+      <c r="H526" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="527" spans="1:9">
       <c r="A527" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9">
-      <c r="A528" t="s">
-        <v>15</v>
-      </c>
-      <c r="B528" t="s">
-        <v>152</v>
-      </c>
-      <c r="C528" t="s">
-        <v>11</v>
-      </c>
-      <c r="D528" t="s">
-        <v>12</v>
-      </c>
-      <c r="E528" t="s">
-        <v>13</v>
-      </c>
-      <c r="F528" t="s">
-        <v>258</v>
-      </c>
-      <c r="G528" t="s">
-        <v>261</v>
-      </c>
-      <c r="H528" t="s">
-        <v>265</v>
-      </c>
-      <c r="I528" t="s">
-        <v>268</v>
+        <v>56</v>
+      </c>
+      <c r="B527">
+        <v>0.0022</v>
+      </c>
+      <c r="C527" t="s">
+        <v>56</v>
+      </c>
+      <c r="D527" t="s">
+        <v>161</v>
+      </c>
+      <c r="E527" t="s">
+        <v>151</v>
+      </c>
+      <c r="G527" t="s">
+        <v>263</v>
+      </c>
+      <c r="H527" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="529" spans="1:9">
       <c r="A529" t="s">
-        <v>148</v>
-      </c>
-      <c r="B529">
-        <v>1</v>
-      </c>
-      <c r="C529" t="s">
-        <v>174</v>
-      </c>
-      <c r="D529" t="s">
-        <v>161</v>
-      </c>
-      <c r="E529" t="s">
-        <v>13</v>
-      </c>
-      <c r="G529" t="s">
-        <v>262</v>
-      </c>
-      <c r="H529" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B529" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="530" spans="1:9">
       <c r="A530" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B530">
-        <v>0.002213279678068411</v>
-      </c>
-      <c r="C530" t="s">
-        <v>220</v>
-      </c>
-      <c r="D530" t="s">
-        <v>159</v>
-      </c>
-      <c r="E530" t="s">
-        <v>151</v>
-      </c>
-      <c r="G530" t="s">
-        <v>263</v>
-      </c>
-      <c r="H530" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:9">
       <c r="A531" t="s">
-        <v>56</v>
-      </c>
-      <c r="B531">
-        <v>0.0022</v>
-      </c>
-      <c r="C531" t="s">
-        <v>56</v>
-      </c>
-      <c r="D531" t="s">
-        <v>161</v>
-      </c>
-      <c r="E531" t="s">
-        <v>151</v>
-      </c>
-      <c r="G531" t="s">
-        <v>263</v>
-      </c>
-      <c r="H531" t="s">
-        <v>266</v>
+        <v>11</v>
+      </c>
+      <c r="B531" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="533" spans="1:9">
       <c r="A533" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B533" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
     </row>
     <row r="534" spans="1:9">
       <c r="A534" t="s">
-        <v>10</v>
-      </c>
-      <c r="B534">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="535" spans="1:9">
       <c r="A535" t="s">
+        <v>15</v>
+      </c>
+      <c r="B535" t="s">
+        <v>152</v>
+      </c>
+      <c r="C535" t="s">
         <v>11</v>
       </c>
-      <c r="B535" t="s">
-        <v>149</v>
+      <c r="D535" t="s">
+        <v>12</v>
+      </c>
+      <c r="E535" t="s">
+        <v>13</v>
+      </c>
+      <c r="F535" t="s">
+        <v>258</v>
+      </c>
+      <c r="G535" t="s">
+        <v>261</v>
+      </c>
+      <c r="H535" t="s">
+        <v>265</v>
+      </c>
+      <c r="I535" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="536" spans="1:9">
       <c r="A536" t="s">
-        <v>12</v>
-      </c>
-      <c r="B536" t="s">
+        <v>149</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536" t="s">
+        <v>149</v>
+      </c>
+      <c r="D536" t="s">
         <v>165</v>
+      </c>
+      <c r="E536" t="s">
+        <v>13</v>
+      </c>
+      <c r="G536" t="s">
+        <v>262</v>
+      </c>
+      <c r="H536" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:9">
       <c r="A537" t="s">
-        <v>13</v>
-      </c>
-      <c r="B537" t="s">
-        <v>13</v>
+        <v>145</v>
+      </c>
+      <c r="B537">
+        <v>0.05</v>
+      </c>
+      <c r="C537" t="s">
+        <v>173</v>
+      </c>
+      <c r="D537" t="s">
+        <v>155</v>
+      </c>
+      <c r="E537" t="s">
+        <v>13</v>
+      </c>
+      <c r="G537" t="s">
+        <v>263</v>
+      </c>
+      <c r="H537" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:9">
       <c r="A538" t="s">
-        <v>14</v>
+        <v>148</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538" t="s">
+        <v>174</v>
+      </c>
+      <c r="D538" t="s">
+        <v>161</v>
+      </c>
+      <c r="E538" t="s">
+        <v>13</v>
+      </c>
+      <c r="G538" t="s">
+        <v>263</v>
+      </c>
+      <c r="H538" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:9">
       <c r="A539" t="s">
-        <v>15</v>
-      </c>
-      <c r="B539" t="s">
-        <v>152</v>
+        <v>136</v>
+      </c>
+      <c r="B539">
+        <v>-9.299999999999999E-06</v>
       </c>
       <c r="C539" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="D539" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="E539" t="s">
-        <v>13</v>
-      </c>
-      <c r="F539" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="G539" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H539" t="s">
-        <v>265</v>
-      </c>
-      <c r="I539" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="540" spans="1:9">
       <c r="A540" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>2.34E-05</v>
       </c>
       <c r="C540" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="D540" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E540" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="G540" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H540" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:9">
-      <c r="A541" t="s">
-        <v>147</v>
-      </c>
-      <c r="B541">
-        <v>0.05</v>
-      </c>
-      <c r="C541" t="s">
-        <v>173</v>
-      </c>
-      <c r="D541" t="s">
-        <v>155</v>
-      </c>
-      <c r="E541" t="s">
-        <v>13</v>
-      </c>
-      <c r="G541" t="s">
-        <v>263</v>
-      </c>
-      <c r="H541" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542" spans="1:9">
-      <c r="A542" t="s">
-        <v>148</v>
-      </c>
-      <c r="B542">
-        <v>1</v>
-      </c>
-      <c r="C542" t="s">
-        <v>174</v>
-      </c>
-      <c r="D542" t="s">
-        <v>161</v>
-      </c>
-      <c r="E542" t="s">
-        <v>13</v>
-      </c>
-      <c r="G542" t="s">
-        <v>263</v>
-      </c>
-      <c r="H542" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543" spans="1:9">
-      <c r="A543" t="s">
-        <v>138</v>
-      </c>
-      <c r="B543">
-        <v>-9.299999999999999E-06</v>
-      </c>
-      <c r="C543" t="s">
-        <v>225</v>
-      </c>
-      <c r="D543" t="s">
-        <v>251</v>
-      </c>
-      <c r="E543" t="s">
-        <v>151</v>
-      </c>
-      <c r="G543" t="s">
-        <v>263</v>
-      </c>
-      <c r="H543" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="544" spans="1:9">
-      <c r="A544" t="s">
-        <v>93</v>
-      </c>
-      <c r="B544">
-        <v>2.34E-05</v>
-      </c>
-      <c r="C544" t="s">
-        <v>228</v>
-      </c>
-      <c r="D544" t="s">
-        <v>150</v>
-      </c>
-      <c r="E544" t="s">
-        <v>151</v>
-      </c>
-      <c r="G544" t="s">
-        <v>263</v>
-      </c>
-      <c r="H544" t="s">
         <v>266</v>
       </c>
     </row>

--- a/data/LCI_temp.xlsx
+++ b/data/LCI_temp.xlsx
@@ -826,13 +826,13 @@
     <t>Purification</t>
   </si>
   <si>
+    <t>Fermentation</t>
+  </si>
+  <si>
     <t>Extraction</t>
   </si>
   <si>
     <t>Equivelent to 79.12 MJ</t>
-  </si>
-  <si>
-    <t>Fermentation</t>
   </si>
   <si>
     <t>(3.3 kg steam * 2.75 MJ/kg steam)*74% overall efficiency</t>
@@ -1987,7 +1987,7 @@
         <v>266</v>
       </c>
       <c r="I50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2013,7 +2013,7 @@
         <v>266</v>
       </c>
       <c r="I51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2039,7 +2039,7 @@
         <v>266</v>
       </c>
       <c r="I52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2065,7 +2065,7 @@
         <v>266</v>
       </c>
       <c r="I53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2117,7 +2117,7 @@
         <v>266</v>
       </c>
       <c r="I55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2169,7 +2169,7 @@
         <v>266</v>
       </c>
       <c r="I57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2247,7 +2247,7 @@
         <v>266</v>
       </c>
       <c r="I60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2273,7 +2273,7 @@
         <v>266</v>
       </c>
       <c r="I61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7848,7 +7848,7 @@
         <v>266</v>
       </c>
       <c r="I402" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -7874,7 +7874,7 @@
         <v>266</v>
       </c>
       <c r="I403" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -7900,7 +7900,7 @@
         <v>266</v>
       </c>
       <c r="I404" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -7952,7 +7952,7 @@
         <v>266</v>
       </c>
       <c r="I406" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -7978,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="I407" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -8004,7 +8004,7 @@
         <v>266</v>
       </c>
       <c r="I408" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -8082,7 +8082,7 @@
         <v>266</v>
       </c>
       <c r="I411" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -8108,7 +8108,7 @@
         <v>266</v>
       </c>
       <c r="I412" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -8640,7 +8640,7 @@
         <v>33</v>
       </c>
       <c r="B446">
-        <v>4.296874999999998E-05</v>
+        <v>5.811111111111111E-07</v>
       </c>
       <c r="C446" t="s">
         <v>188</v>
